--- a/Verification.xlsx
+++ b/Verification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dotsc_56\workspace\MapReduceWordCount\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Users\Ruben\workspace\MapReduceWordCount\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,18 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Avg</t>
   </si>
   <si>
     <t>SUM</t>
   </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,6 +166,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -195,6 +218,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,7 +390,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,6 +484,13 @@
         <f t="shared" si="0"/>
         <v>53.589999999999996</v>
       </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>MIN(H1:H11)</f>
+        <v>22.806999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -467,6 +514,13 @@
       <c r="H4">
         <f t="shared" si="0"/>
         <v>22.806999999999999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f>MAX(H1:H11)</f>
+        <v>70.475999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">

--- a/Verification.xlsx
+++ b/Verification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Users\Ruben\workspace\MapReduceWordCount\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dotsc_56\workspace\MapReduceWordCount\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Avg</t>
   </si>
@@ -37,13 +37,36 @@
   <si>
     <t>MAX</t>
   </si>
+  <si>
+    <t>Final OUTPUT</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -71,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,23 +190,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -218,23 +225,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -387,15 +377,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -430,7 +425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -461,7 +456,7 @@
         <v>531.24799999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -492,7 +487,7 @@
         <v>22.806999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -523,7 +518,7 @@
         <v>70.475999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -547,7 +542,7 @@
         <v>50.683</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -571,7 +566,7 @@
         <v>67.959000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -595,7 +590,7 @@
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -619,7 +614,7 @@
         <v>44.27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -643,7 +638,7 @@
         <v>43.527999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -667,7 +662,7 @@
         <v>28.947000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -691,7 +686,7 @@
         <v>70.251999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -715,7 +710,7 @@
         <v>28.173999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -738,8 +733,11 @@
         <f t="shared" si="0"/>
         <v>28.28</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -762,8 +760,17 @@
         <f t="shared" si="0"/>
         <v>35.472999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -786,8 +793,23 @@
         <f t="shared" si="0"/>
         <v>44.948999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>48.295272727272703</v>
+      </c>
+      <c r="N15">
+        <v>22.806999999999999</v>
+      </c>
+      <c r="O15">
+        <v>70.475999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -810,8 +832,20 @@
         <f t="shared" si="0"/>
         <v>50.838999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>39.411000000000001</v>
+      </c>
+      <c r="N16">
+        <v>28.173999999999999</v>
+      </c>
+      <c r="O16">
+        <v>50.838999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -834,8 +868,20 @@
         <f t="shared" si="0"/>
         <v>45.218000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>49.755375000000001</v>
+      </c>
+      <c r="N17">
+        <v>38.51</v>
+      </c>
+      <c r="O17">
+        <v>67.733999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -858,8 +904,20 @@
         <f t="shared" si="0"/>
         <v>32.808999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>45.342611111111097</v>
+      </c>
+      <c r="N18">
+        <v>17.858000000000001</v>
+      </c>
+      <c r="O18">
+        <v>79.587999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -882,8 +940,20 @@
         <f t="shared" si="0"/>
         <v>49.546000000000006</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>52.7759</v>
+      </c>
+      <c r="N19">
+        <v>34.826000000000001</v>
+      </c>
+      <c r="O19">
+        <v>74.462000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -906,8 +976,20 @@
         <f t="shared" si="0"/>
         <v>45.138000000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>46.360250000000001</v>
+      </c>
+      <c r="N20">
+        <v>28.971</v>
+      </c>
+      <c r="O20">
+        <v>58.360999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -930,8 +1012,20 @@
         <f t="shared" si="0"/>
         <v>45.850999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>52.751599999999897</v>
+      </c>
+      <c r="N21">
+        <v>34.076000000000001</v>
+      </c>
+      <c r="O21">
+        <v>76.986999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -954,8 +1048,20 @@
         <f t="shared" si="0"/>
         <v>38.51</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>55.204142857142799</v>
+      </c>
+      <c r="N22">
+        <v>34.707000000000001</v>
+      </c>
+      <c r="O22">
+        <v>77.218999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -978,8 +1084,20 @@
         <f t="shared" si="0"/>
         <v>67.733999999999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>54.028444444444403</v>
+      </c>
+      <c r="N23">
+        <v>40.277999999999999</v>
+      </c>
+      <c r="O23">
+        <v>66.265000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1002,8 +1120,20 @@
         <f t="shared" si="0"/>
         <v>49.463000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>57.403454545454501</v>
+      </c>
+      <c r="N24">
+        <v>34.363999999999997</v>
+      </c>
+      <c r="O24">
+        <v>75.215999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1026,8 +1156,9 @@
         <f t="shared" si="0"/>
         <v>52.127000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1051,7 +1182,7 @@
         <v>39.773000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1075,7 +1206,7 @@
         <v>59.447000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1099,7 +1230,7 @@
         <v>34.929000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1123,7 +1254,7 @@
         <v>49.664000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1147,7 +1278,7 @@
         <v>28.476000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1171,7 +1302,7 @@
         <v>32.323</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
